--- a/yandex-output-positions.xlsx
+++ b/yandex-output-positions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>name</t>
   </si>
@@ -22,460 +22,661 @@
     <t>volume</t>
   </si>
   <si>
-    <t>2019-10-19</t>
-  </si>
-  <si>
-    <t>2019-12-12</t>
-  </si>
-  <si>
-    <t>2020-01-11</t>
-  </si>
-  <si>
-    <t>поршневой компрессор aircast</t>
-  </si>
-  <si>
-    <t>компрессор купить в рб</t>
-  </si>
-  <si>
-    <t>компрессор тандем</t>
-  </si>
-  <si>
-    <t>компрессоры винтовые</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция цена</t>
-  </si>
-  <si>
-    <t>винтовой компрессор цена</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>водомасляный сепаратор</t>
-  </si>
-  <si>
-    <t>купить рефрижераторные осушители</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор купить</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный цена</t>
-  </si>
-  <si>
-    <t>продажа передвижных компрессоров</t>
-  </si>
-  <si>
-    <t>купить поршневой компрессор</t>
-  </si>
-  <si>
-    <t>винтовой компрессор ремеза</t>
-  </si>
-  <si>
-    <t>компрессоры воздушные</t>
-  </si>
-  <si>
-    <t>компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>компрессор среднего давления</t>
-  </si>
-  <si>
-    <t>ресивер воздушный для компрессора</t>
-  </si>
-  <si>
-    <t>компрессор стоматологический</t>
-  </si>
-  <si>
-    <t>воздушный ресивер 500</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционного типа</t>
-  </si>
-  <si>
-    <t>промышленный генератор азота</t>
-  </si>
-  <si>
-    <t>купить передвижной компрессор</t>
-  </si>
-  <si>
-    <t>рефрижераторные осушители воздуха</t>
-  </si>
-  <si>
-    <t>винтовые компрессорные станции</t>
-  </si>
-  <si>
-    <t>remeza</t>
-  </si>
-  <si>
-    <t>ременный компрессор купить</t>
-  </si>
-  <si>
-    <t>компрессор</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции производители</t>
-  </si>
-  <si>
-    <t>компрессор поршневой воздушный</t>
-  </si>
-  <si>
-    <t>компрессор медицинского воздуха</t>
-  </si>
-  <si>
-    <t>фильтр регулятор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель цена</t>
-  </si>
-  <si>
-    <t>передвижные дизельные компрессорные станции</t>
-  </si>
-  <si>
-    <t>компрессор купить в минске</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>купить компрессор ремеза</t>
-  </si>
-  <si>
-    <t>компрессор поршневой масляный с ременным приводом</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры</t>
-  </si>
-  <si>
-    <t>безмасляный поршневой компрессор</t>
-  </si>
-  <si>
-    <t>безмасляный винтовой компрессор</t>
-  </si>
-  <si>
-    <t>ресивер воздушный купить</t>
-  </si>
-  <si>
-    <t>осушитель рефрижераторного типа купить</t>
-  </si>
-  <si>
-    <t>воздушный компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>ресивер воздух</t>
-  </si>
-  <si>
-    <t>осушитель адсорбционный горячецикловой rmwe 390</t>
-  </si>
-  <si>
-    <t>генератор азота цена</t>
-  </si>
-  <si>
-    <t>компрессор троллейбуса</t>
-  </si>
-  <si>
-    <t>ресивер промышленный</t>
-  </si>
-  <si>
-    <t>дизельная компрессорная станция</t>
-  </si>
-  <si>
-    <t>компрессоры remeza</t>
-  </si>
-  <si>
-    <t>компрессор поршневой remeza</t>
-  </si>
-  <si>
-    <t>компрессоры поршневые</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция купить</t>
-  </si>
-  <si>
-    <t>компрессор передвижной</t>
-  </si>
-  <si>
-    <t>ремеза медицинские компрессоры</t>
-  </si>
-  <si>
-    <t>фильтр воздушный сжатого воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха промышленный</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами купить</t>
-  </si>
-  <si>
-    <t>передвижной поршневой компрессор</t>
-  </si>
-  <si>
-    <t>компрессор воздушный купить</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель</t>
-  </si>
-  <si>
-    <t>производство поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>купить компрессор в беларуси</t>
-  </si>
-  <si>
-    <t>компрессор поршневой прямой привод</t>
-  </si>
-  <si>
-    <t>воздушные компрессоры</t>
-  </si>
-  <si>
-    <t>безмасляный воздушный компрессор</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>ресивер воздушный</t>
-  </si>
-  <si>
-    <t>осушитель сжатого воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>осушитель воздуха рефрижераторного типа</t>
-  </si>
-  <si>
-    <t>воздушный ресивер цена</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель горячей регенерации</t>
-  </si>
-  <si>
-    <t>генератор азота купить</t>
-  </si>
-  <si>
-    <t>компрессор поршневой fiac</t>
-  </si>
-  <si>
-    <t>производители поршневых компрессоров</t>
-  </si>
-  <si>
-    <t>винтовые компрессоры прямой привод</t>
-  </si>
-  <si>
-    <t>ремеза</t>
-  </si>
-  <si>
-    <t>безмасляные винтовые компрессоры remeza</t>
-  </si>
-  <si>
-    <t>купить винтовой безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>воздушный компрессор</t>
-  </si>
-  <si>
-    <t>модульный компрессор</t>
-  </si>
-  <si>
-    <t>компрессор винтовой воздушный</t>
-  </si>
-  <si>
-    <t>компрессор медицинский купить</t>
-  </si>
-  <si>
-    <t>магистральный фильтр для сжатого воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель купить</t>
-  </si>
-  <si>
-    <t>системы управления компрессорами</t>
-  </si>
-  <si>
-    <t>передвижная дизельная станция</t>
-  </si>
-  <si>
-    <t>система управления компрессором</t>
-  </si>
-  <si>
-    <t>компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>адсорбционные осушители сжатого воздуха</t>
-  </si>
-  <si>
-    <t>поршневой компрессор безмасляный</t>
-  </si>
-  <si>
-    <t>купить компрессор</t>
-  </si>
-  <si>
-    <t>компрессор поршневой 10 бар</t>
-  </si>
-  <si>
-    <t>компрессоры</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор купить</t>
-  </si>
-  <si>
-    <t>купить винтовой компрессор</t>
-  </si>
-  <si>
-    <t>вспомогательный компрессор электропоезда</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха для компрессора</t>
-  </si>
-  <si>
-    <t>доохладители сжатого воздуха</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор цена</t>
-  </si>
-  <si>
-    <t>компрессор медицинский</t>
-  </si>
-  <si>
-    <t>производители винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>стоимость винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>компрессоры ремеза</t>
-  </si>
-  <si>
-    <t>купить компрессор безмасляный малошумный</t>
-  </si>
-  <si>
-    <t>фильтры для очистки сжатого воздуха</t>
-  </si>
-  <si>
-    <t>ресиверы воздухосборники</t>
-  </si>
-  <si>
-    <t>компрессор винтовой</t>
-  </si>
-  <si>
-    <t>блочно модульная компрессорная станция</t>
-  </si>
-  <si>
-    <t>компрессор воздушный</t>
-  </si>
-  <si>
-    <t>медицинский компрессор сжатого воздуха</t>
-  </si>
-  <si>
-    <t>фильтр сжатого воздуха</t>
-  </si>
-  <si>
-    <t>осушитель воздуха адсорбционного типа</t>
-  </si>
-  <si>
-    <t>генератор азота psa</t>
-  </si>
-  <si>
-    <t>осушители воздуха адсорбционные</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>поршневой компрессор remeza</t>
-  </si>
-  <si>
-    <t>компрессор ременной купить</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой с ременным приводом</t>
-  </si>
-  <si>
-    <t>поршневые компрессоры</t>
-  </si>
-  <si>
-    <t>безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>купить компрессор поршневой</t>
-  </si>
-  <si>
-    <t>компрессор 380 вольт промышленный</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель воздуха</t>
-  </si>
-  <si>
-    <t>доохладитель купить</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель цена</t>
-  </si>
-  <si>
-    <t>циклонный сепаратор воздуха</t>
-  </si>
-  <si>
-    <t>компрессор воздушный медицинский</t>
-  </si>
-  <si>
-    <t>продажа винтовых компрессоров</t>
-  </si>
-  <si>
-    <t>ресивер для компрессора купить</t>
-  </si>
-  <si>
-    <t>винтовые маслозаполненные компрессоры</t>
-  </si>
-  <si>
-    <t>винтовой компрессор</t>
-  </si>
-  <si>
-    <t>спиральный безмасляный компрессор</t>
-  </si>
-  <si>
-    <t>компрессоры специальные</t>
-  </si>
-  <si>
-    <t>ресивер воздушный 500 литров</t>
-  </si>
-  <si>
-    <t>безмасляные компрессоры</t>
-  </si>
-  <si>
-    <t>компрессор медицинский безмасляный</t>
-  </si>
-  <si>
-    <t>воздухосборник ресивер воздушный</t>
-  </si>
-  <si>
-    <t>адсорбционный осушитель сжатого воздуха</t>
-  </si>
-  <si>
-    <t>генератор азота адсорбционного типа</t>
-  </si>
-  <si>
-    <t>модульные компрессорные станции</t>
-  </si>
-  <si>
-    <t>рефрижераторный осушитель</t>
-  </si>
-  <si>
-    <t>модульная компрессорная станция</t>
+    <t>2019-12-18</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
+  </si>
+  <si>
+    <t>2020-01-17</t>
+  </si>
+  <si>
+    <t>обои mistral</t>
+  </si>
+  <si>
+    <t>стеклообои под покраску</t>
+  </si>
+  <si>
+    <t>купить дизайнерскую виниловую плитку</t>
+  </si>
+  <si>
+    <t>ламинат с фаской купить</t>
+  </si>
+  <si>
+    <t>ламинат 33 класс цена</t>
+  </si>
+  <si>
+    <t>lvt плитка</t>
+  </si>
+  <si>
+    <t>купить ламинат 32 класс</t>
+  </si>
+  <si>
+    <t>коммерческий линолеум купить в минске</t>
+  </si>
+  <si>
+    <t>ковролин купить</t>
+  </si>
+  <si>
+    <t>ламинат кроноспан</t>
+  </si>
+  <si>
+    <t>паркетная доска поларвуд дуб</t>
+  </si>
+  <si>
+    <t>моющиеся обои минск</t>
+  </si>
+  <si>
+    <t>паркетная доска оптом</t>
+  </si>
+  <si>
+    <t>купить паркетную доску косвик</t>
+  </si>
+  <si>
+    <t>натуральный линолеум</t>
+  </si>
+  <si>
+    <t>текстильные обои</t>
+  </si>
+  <si>
+    <t>купить обои в минске оптом</t>
+  </si>
+  <si>
+    <t>модульный паркет в минске</t>
+  </si>
+  <si>
+    <t>паркетная доска polarwood</t>
+  </si>
+  <si>
+    <t>виниловые обои на флизелиновой основе купить</t>
+  </si>
+  <si>
+    <t>паркет bonnard</t>
+  </si>
+  <si>
+    <t>ламинат оптом</t>
+  </si>
+  <si>
+    <t>напольное покрытие пвх</t>
+  </si>
+  <si>
+    <t>ковровая плитка купить</t>
+  </si>
+  <si>
+    <t>kronospan castello</t>
+  </si>
+  <si>
+    <t>линолеум коммерческий купить</t>
+  </si>
+  <si>
+    <t>оптовая продажа ламината</t>
+  </si>
+  <si>
+    <t>гомогенное покрытие купить</t>
+  </si>
+  <si>
+    <t>линолеум для спортивных залов</t>
+  </si>
+  <si>
+    <t>ковровое покрытие</t>
+  </si>
+  <si>
+    <t>ламинат kronospan дуб</t>
+  </si>
+  <si>
+    <t>пвх forbo</t>
+  </si>
+  <si>
+    <t>натуральный линолеум минск</t>
+  </si>
+  <si>
+    <t>обои под покраску</t>
+  </si>
+  <si>
+    <t>паркетная доска</t>
+  </si>
+  <si>
+    <t>купить паркет оптом</t>
+  </si>
+  <si>
+    <t>бумажные обои в минске</t>
+  </si>
+  <si>
+    <t>обои антивандальные купить</t>
+  </si>
+  <si>
+    <t>пвх покрытия купить</t>
+  </si>
+  <si>
+    <t>купить обои вилия</t>
+  </si>
+  <si>
+    <t>ламинат</t>
+  </si>
+  <si>
+    <t>стеклообои купить</t>
+  </si>
+  <si>
+    <t>купить виниловую плитку</t>
+  </si>
+  <si>
+    <t>купить ламинат в беларуси</t>
+  </si>
+  <si>
+    <t>ламинат kronospan</t>
+  </si>
+  <si>
+    <t>модульная плитка</t>
+  </si>
+  <si>
+    <t>купить ламинат 33 класс в минске</t>
+  </si>
+  <si>
+    <t>коммерческий линолеум минск</t>
+  </si>
+  <si>
+    <t>ковролин бытовой</t>
+  </si>
+  <si>
+    <t>ламинат kronospan variostep classic</t>
+  </si>
+  <si>
+    <t>паркетная доска polarwood дуб</t>
+  </si>
+  <si>
+    <t>обои</t>
+  </si>
+  <si>
+    <t>паркетная доска цена</t>
+  </si>
+  <si>
+    <t>купить паркет косвик</t>
+  </si>
+  <si>
+    <t>виниловые обои на флизелиновой основе</t>
+  </si>
+  <si>
+    <t>купить обои оптом</t>
+  </si>
+  <si>
+    <t>паркет минск</t>
+  </si>
+  <si>
+    <t>паркетная доска upofloor</t>
+  </si>
+  <si>
+    <t>купить виниловые обои</t>
+  </si>
+  <si>
+    <t>паркетная доска дуб</t>
+  </si>
+  <si>
+    <t>купить ламинат дуб</t>
+  </si>
+  <si>
+    <t>пвх покрытие</t>
+  </si>
+  <si>
+    <t>ковровая плитка для пола</t>
+  </si>
+  <si>
+    <t>купить ламинат кроноспан</t>
+  </si>
+  <si>
+    <t>линолеум цена</t>
+  </si>
+  <si>
+    <t>мармолеум купить</t>
+  </si>
+  <si>
+    <t>текстильные обои купить</t>
+  </si>
+  <si>
+    <t>гомогенное покрытие цена</t>
+  </si>
+  <si>
+    <t>линолеум купить оптом</t>
+  </si>
+  <si>
+    <t>ковровая плитка tarkett</t>
+  </si>
+  <si>
+    <t>ламинат kronospan forte</t>
+  </si>
+  <si>
+    <t>коммерческий линолеум таркетт</t>
+  </si>
+  <si>
+    <t>натуральный линолеум цена</t>
+  </si>
+  <si>
+    <t>обои под покраску купить</t>
+  </si>
+  <si>
+    <t>паркет оптом</t>
+  </si>
+  <si>
+    <t>бумажные обои купить</t>
+  </si>
+  <si>
+    <t>бумажные виниловые обои</t>
+  </si>
+  <si>
+    <t>vilia обои</t>
+  </si>
+  <si>
+    <t>обои вилия</t>
+  </si>
+  <si>
+    <t>купить ламинат в минске</t>
+  </si>
+  <si>
+    <t>ламинат в минске оптом</t>
+  </si>
+  <si>
+    <t>виниловая плитка</t>
+  </si>
+  <si>
+    <t>ламинат с фаской</t>
+  </si>
+  <si>
+    <t>купить ламинат 33 класс</t>
+  </si>
+  <si>
+    <t>модульная плитка пвх</t>
+  </si>
+  <si>
+    <t>коммерческий линолеум цена</t>
+  </si>
+  <si>
+    <t>ковровое покрытие цена</t>
+  </si>
+  <si>
+    <t>белорусский ламинат kronospan</t>
+  </si>
+  <si>
+    <t>паркетная доска поларвуд купить</t>
+  </si>
+  <si>
+    <t>гомогенное покрытие</t>
+  </si>
+  <si>
+    <t>обои для стен</t>
+  </si>
+  <si>
+    <t>паркетная доска минск</t>
+  </si>
+  <si>
+    <t>паркетная доска coswick купить в минске</t>
+  </si>
+  <si>
+    <t>купить немецкие обои</t>
+  </si>
+  <si>
+    <t>стеклообои купить в минске</t>
+  </si>
+  <si>
+    <t>купить обои оптом в минске</t>
+  </si>
+  <si>
+    <t>купить паркет</t>
+  </si>
+  <si>
+    <t>паркет боннард</t>
+  </si>
+  <si>
+    <t>купить обои на виниловой основе</t>
+  </si>
+  <si>
+    <t>иглопробивное ковровое покрытие</t>
+  </si>
+  <si>
+    <t>ламинат с фаской купить в минске</t>
+  </si>
+  <si>
+    <t>линолеум оптом</t>
+  </si>
+  <si>
+    <t>ковровая плитка</t>
+  </si>
+  <si>
+    <t>ламинат 32 класс цена</t>
+  </si>
+  <si>
+    <t>линолеум купить</t>
+  </si>
+  <si>
+    <t>купить ковровое покрытие</t>
+  </si>
+  <si>
+    <t>мармолеум цена</t>
+  </si>
+  <si>
+    <t>текстильные обои купить в минске</t>
+  </si>
+  <si>
+    <t>плитка пвх</t>
+  </si>
+  <si>
+    <t>ковровая плитка forbo</t>
+  </si>
+  <si>
+    <t>ламинат kronospan castello classic</t>
+  </si>
+  <si>
+    <t>гомогенный линолеум таркетт</t>
+  </si>
+  <si>
+    <t>натуральный линолеум мармолеум</t>
+  </si>
+  <si>
+    <t>обои под покраску купить в минске</t>
+  </si>
+  <si>
+    <t>модульный паркет</t>
+  </si>
+  <si>
+    <t>бумажные обои оптом</t>
+  </si>
+  <si>
+    <t>виниловые обои</t>
+  </si>
+  <si>
+    <t>стеклообои купить оптом</t>
+  </si>
+  <si>
+    <t>белорусские обои вилия</t>
+  </si>
+  <si>
+    <t>иглопробивной ковролин</t>
+  </si>
+  <si>
+    <t>купить ламинат белорусского производства</t>
+  </si>
+  <si>
+    <t>напольное гомогенное покрытие</t>
+  </si>
+  <si>
+    <t>ламинат цена</t>
+  </si>
+  <si>
+    <t>ламинат кроношпан</t>
+  </si>
+  <si>
+    <t>гомогенный линолеум</t>
+  </si>
+  <si>
+    <t>линолеум бытовой купить</t>
+  </si>
+  <si>
+    <t>ковровое покрытие оптом</t>
+  </si>
+  <si>
+    <t>ламинат 33 с фаской</t>
+  </si>
+  <si>
+    <t>паркетная доска поларвуд ясень</t>
+  </si>
+  <si>
+    <t>гетерогенное напольное покрытие</t>
+  </si>
+  <si>
+    <t>обои каталог</t>
+  </si>
+  <si>
+    <t>паркетная доска в минске</t>
+  </si>
+  <si>
+    <t>паркетная доска косвик цена</t>
+  </si>
+  <si>
+    <t>немецкие обои</t>
+  </si>
+  <si>
+    <t>стеклообои</t>
+  </si>
+  <si>
+    <t>напольное гомогенное пвх покрытие</t>
+  </si>
+  <si>
+    <t>купить паркет в минске</t>
+  </si>
+  <si>
+    <t>bonnard паркетная доска</t>
+  </si>
+  <si>
+    <t>обои виниловые на бумажной основе</t>
+  </si>
+  <si>
+    <t>стеклообои минск</t>
+  </si>
+  <si>
+    <t>иглопробивка</t>
+  </si>
+  <si>
+    <t>ламинат белорусского производства</t>
+  </si>
+  <si>
+    <t>напольное покрытие таркетт</t>
+  </si>
+  <si>
+    <t>ламинат kronospan купить</t>
+  </si>
+  <si>
+    <t>линолеум</t>
+  </si>
+  <si>
+    <t>коммерческий ковролин</t>
+  </si>
+  <si>
+    <t>мармолеум</t>
+  </si>
+  <si>
+    <t>флизелиновые обои под покраску</t>
+  </si>
+  <si>
+    <t>моющиеся обои</t>
+  </si>
+  <si>
+    <t>пол пвх</t>
+  </si>
+  <si>
+    <t>ковровая плитка минск</t>
+  </si>
+  <si>
+    <t>ламинат 32 класс дуб</t>
+  </si>
+  <si>
+    <t>гомогенное покрытие таркетт цена</t>
+  </si>
+  <si>
+    <t>купить натуральный линолеум</t>
+  </si>
+  <si>
+    <t>обои под покраску оптом</t>
+  </si>
+  <si>
+    <t>купить обои в беларуси</t>
+  </si>
+  <si>
+    <t>паркет в минске</t>
+  </si>
+  <si>
+    <t>купить обои</t>
+  </si>
+  <si>
+    <t>виниловые обои в минске</t>
+  </si>
+  <si>
+    <t>стеклообои оптом</t>
+  </si>
+  <si>
+    <t>белорусские обои</t>
+  </si>
+  <si>
+    <t>каталог ковровых покрытий</t>
+  </si>
+  <si>
+    <t>купить ламинат в минске оптом</t>
+  </si>
+  <si>
+    <t>ламинат в минске</t>
+  </si>
+  <si>
+    <t>ламинат кроноспан рб</t>
+  </si>
+  <si>
+    <t>гомогенное покрытие минск</t>
+  </si>
+  <si>
+    <t>покрытие таркетт</t>
+  </si>
+  <si>
+    <t>ковровое покрытие минск купить</t>
+  </si>
+  <si>
+    <t>ламинат 32 класс в минске</t>
+  </si>
+  <si>
+    <t>паркетная доска поларвуд</t>
+  </si>
+  <si>
+    <t>гетерогенное покрытие</t>
+  </si>
+  <si>
+    <t>обои на бумажной основе</t>
+  </si>
+  <si>
+    <t>паркетная доска купить</t>
+  </si>
+  <si>
+    <t>паркетная доска coswick</t>
+  </si>
+  <si>
+    <t>немецкие обои в минске</t>
+  </si>
+  <si>
+    <t>антивандальные обои купить в минске</t>
+  </si>
+  <si>
+    <t>гомоген</t>
+  </si>
+  <si>
+    <t>паркетная доска ясень</t>
+  </si>
+  <si>
+    <t>обои на виниловой основе</t>
+  </si>
+  <si>
+    <t>стеклообои под покраску купить</t>
+  </si>
+  <si>
+    <t>дизайнерская виниловая плитка</t>
+  </si>
+  <si>
+    <t>белорусский ламинат</t>
+  </si>
+  <si>
+    <t>ламинат 32 класс</t>
+  </si>
+  <si>
+    <t>виниловая плитка для пола купить</t>
+  </si>
+  <si>
+    <t>ламинат 32 класса</t>
+  </si>
+  <si>
+    <t>линолеум купить в минске</t>
+  </si>
+  <si>
+    <t>ковролин напольный</t>
+  </si>
+  <si>
+    <t>ламинат гомельдрев</t>
+  </si>
+  <si>
+    <t>купить паркетную доску polarwood</t>
+  </si>
+  <si>
+    <t>моющиеся обои купить</t>
+  </si>
+  <si>
+    <t>паркет</t>
+  </si>
+  <si>
+    <t>гомогенное покрытие таркетт</t>
+  </si>
+  <si>
+    <t>натуральный линолеум купить в минске</t>
+  </si>
+  <si>
+    <t>обои цена</t>
+  </si>
+  <si>
+    <t>купить обои в минске</t>
+  </si>
+  <si>
+    <t>модульный паркет купить</t>
+  </si>
+  <si>
+    <t>виниловые обои на флизелиновой</t>
+  </si>
+  <si>
+    <t>купить белорусские обои</t>
+  </si>
+  <si>
+    <t>напольное ковровое покрытие</t>
+  </si>
+  <si>
+    <t>купить белорусский ламинат</t>
+  </si>
+  <si>
+    <t>пвх полы купить</t>
+  </si>
+  <si>
+    <t>ковровая плитка купить в минске</t>
+  </si>
+  <si>
+    <t>ламинат kronospan castello</t>
+  </si>
+  <si>
+    <t>купить ламинат</t>
+  </si>
+  <si>
+    <t>ламинат 33 класс</t>
+  </si>
+  <si>
+    <t>гомогенное пвх покрытие</t>
+  </si>
+  <si>
+    <t>линолеум бытовой</t>
+  </si>
+  <si>
+    <t>ковровое покрытие минск</t>
+  </si>
+  <si>
+    <t>ламинат kronospan дуб каньон</t>
+  </si>
+  <si>
+    <t>пвх плитка forbo</t>
+  </si>
+  <si>
+    <t>обои оптом</t>
+  </si>
+  <si>
+    <t>купить паркетную доску в минске</t>
+  </si>
+  <si>
+    <t>паркетная доска косвик</t>
+  </si>
+  <si>
+    <t>бумажные обои</t>
+  </si>
+  <si>
+    <t>антивандальные обои</t>
+  </si>
+  <si>
+    <t>гетероген</t>
   </si>
 </sst>
 </file>
@@ -833,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -864,16 +1065,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -884,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -910,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -924,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -944,16 +1145,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -984,16 +1185,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1004,16 +1205,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
         <v>11</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1024,16 +1225,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1047,13 +1248,13 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
         <v>8</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1067,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1087,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1107,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1124,16 +1325,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1144,16 +1345,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1164,7 +1365,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1184,16 +1385,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1207,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1224,16 +1425,16 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1244,7 +1445,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1253,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1264,16 +1465,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>13</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1284,16 +1485,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1304,16 +1505,16 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1324,16 +1525,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1350,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1364,16 +1565,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1384,16 +1585,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1404,16 +1605,16 @@
         <v>32</v>
       </c>
       <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
         <v>4</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1424,16 +1625,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1444,16 +1645,16 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1464,16 +1665,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F32">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1487,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1504,16 +1705,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1524,16 +1725,16 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1544,16 +1745,16 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1564,7 +1765,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1584,16 +1785,16 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1604,16 +1805,16 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1624,16 +1825,16 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1644,16 +1845,16 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
         <v>5</v>
-      </c>
-      <c r="F41">
-        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1664,16 +1865,16 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1684,16 +1885,16 @@
         <v>46</v>
       </c>
       <c r="C43">
+        <v>22</v>
+      </c>
+      <c r="D43">
         <v>28</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
       <c r="E43">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F43">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1704,13 +1905,13 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1724,16 +1925,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F45">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1744,16 +1945,16 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F46">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1764,16 +1965,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1784,16 +1985,16 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F48">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1804,16 +2005,16 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F49">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1824,13 +2025,13 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -1847,13 +2048,13 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>8</v>
-      </c>
-      <c r="F51">
-        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1867,13 +2068,13 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1884,16 +2085,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2889</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1904,16 +2105,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1924,16 +2125,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1944,16 +2145,16 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1964,16 +2165,16 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F57">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1984,16 +2185,16 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2004,7 +2205,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2024,16 +2225,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2044,16 +2245,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2064,16 +2265,16 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2084,16 +2285,16 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2104,16 +2305,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F64">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2124,16 +2325,16 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2144,16 +2345,16 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2164,16 +2365,16 @@
         <v>70</v>
       </c>
       <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67">
         <v>2</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
       <c r="E67">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2184,16 +2385,16 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2204,16 +2405,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2224,16 +2425,16 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2244,16 +2445,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2267,13 +2468,13 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2284,16 +2485,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2304,16 +2505,16 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F74">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2324,16 +2525,16 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2344,16 +2545,16 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2364,16 +2565,16 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2390,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2404,16 +2605,16 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D79">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E79">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F79">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2424,16 +2625,16 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>7</v>
       </c>
       <c r="E80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F80">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2444,16 +2645,16 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="D81">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E81">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F81">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2464,16 +2665,16 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F82">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2484,16 +2685,16 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2504,16 +2705,16 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2524,16 +2725,16 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D85">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2544,16 +2745,16 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2564,16 +2765,16 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2584,16 +2785,16 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F88">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2607,13 +2808,13 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E89">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F89">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2624,13 +2825,13 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2644,16 +2845,16 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D91">
+        <v>8</v>
+      </c>
+      <c r="E91">
         <v>9</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>8</v>
-      </c>
-      <c r="F91">
-        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2664,16 +2865,16 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D92">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2684,16 +2885,16 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D93">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E93">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F93">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2704,16 +2905,16 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E94">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F94">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2724,16 +2925,16 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F95">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2744,16 +2945,16 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E96">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F96">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2764,16 +2965,16 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E97">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F97">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2784,7 +2985,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2804,16 +3005,16 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2824,7 +3025,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2844,16 +3045,16 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2864,16 +3065,16 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2887,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2904,16 +3105,16 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D104">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F104">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2924,16 +3125,16 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2944,7 +3145,7 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>734</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2953,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2964,16 +3165,16 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F107">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2984,16 +3185,16 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D108">
         <v>4</v>
       </c>
       <c r="E108">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F108">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3004,16 +3205,16 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E109">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F109">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3024,16 +3225,16 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3044,16 +3245,16 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111">
         <v>2</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3070,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3087,13 +3288,13 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F113">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3104,16 +3305,16 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F114">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3124,16 +3325,16 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3144,7 +3345,7 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3164,7 +3365,7 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3184,16 +3385,16 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D118">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3204,16 +3405,16 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E119">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F119">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3227,13 +3428,13 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3244,16 +3445,16 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E121">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F121">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3264,16 +3465,16 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E122">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F122">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3284,13 +3485,13 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F123">
         <v>5</v>
@@ -3304,16 +3505,16 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3324,16 +3525,16 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3344,16 +3545,16 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E126">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F126">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3364,7 +3565,7 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3373,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3384,16 +3585,16 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3404,7 +3605,7 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3424,13 +3625,13 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3444,16 +3645,16 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F131">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3464,13 +3665,13 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E132">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3484,16 +3685,16 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D133">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E133">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F133">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3507,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E134">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F134">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3524,16 +3725,16 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F135">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3544,7 +3745,7 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -3564,16 +3765,16 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E137">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F137">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3584,16 +3785,16 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E138">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F138">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3604,16 +3805,16 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3624,16 +3825,16 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3644,16 +3845,16 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E141">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3667,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3684,16 +3885,16 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E143">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3704,16 +3905,16 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D144">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E144">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F144">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3724,16 +3925,16 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E145">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F145">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3744,16 +3945,16 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>826</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3764,16 +3965,16 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E147">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F147">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3784,16 +3985,16 @@
         <v>151</v>
       </c>
       <c r="C148">
+        <v>46</v>
+      </c>
+      <c r="D148">
         <v>6</v>
-      </c>
-      <c r="D148">
-        <v>8</v>
       </c>
       <c r="E148">
         <v>5</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3804,16 +4005,16 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3824,16 +4025,1356 @@
         <v>153</v>
       </c>
       <c r="C150">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>12</v>
+      </c>
+      <c r="F151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>15</v>
+      </c>
+      <c r="E152">
+        <v>15</v>
+      </c>
+      <c r="F152">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153">
         <v>1</v>
       </c>
-      <c r="D150">
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+      <c r="D154">
+        <v>10</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>6</v>
+      </c>
+      <c r="F155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157">
+        <v>26</v>
+      </c>
+      <c r="D157">
+        <v>19</v>
+      </c>
+      <c r="E157">
+        <v>19</v>
+      </c>
+      <c r="F157">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>26</v>
+      </c>
+      <c r="E158">
+        <v>37</v>
+      </c>
+      <c r="F158">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159">
+        <v>401</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>35</v>
+      </c>
+      <c r="E160">
+        <v>34</v>
+      </c>
+      <c r="F160">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162">
+        <v>102</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>11</v>
+      </c>
+      <c r="E163">
+        <v>10</v>
+      </c>
+      <c r="F163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>167</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+      <c r="F164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165">
+        <v>107</v>
+      </c>
+      <c r="D165">
+        <v>37</v>
+      </c>
+      <c r="E165">
+        <v>43</v>
+      </c>
+      <c r="F165">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166">
+        <v>20</v>
+      </c>
+      <c r="D166">
+        <v>7</v>
+      </c>
+      <c r="E166">
+        <v>11</v>
+      </c>
+      <c r="F166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167">
+        <v>6</v>
+      </c>
+      <c r="F167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>171</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
+      <c r="C169">
+        <v>83</v>
+      </c>
+      <c r="D169">
+        <v>26</v>
+      </c>
+      <c r="E169">
+        <v>27</v>
+      </c>
+      <c r="F169">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>174</v>
+      </c>
+      <c r="C171">
+        <v>10</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>19</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>175</v>
+      </c>
+      <c r="C172">
         <v>8</v>
       </c>
-      <c r="E150">
+      <c r="D172">
+        <v>5</v>
+      </c>
+      <c r="E172">
+        <v>6</v>
+      </c>
+      <c r="F172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174">
+        <v>83</v>
+      </c>
+      <c r="D174">
+        <v>22</v>
+      </c>
+      <c r="E174">
+        <v>21</v>
+      </c>
+      <c r="F174">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
         <v>10</v>
       </c>
-      <c r="F150">
+      <c r="E175">
+        <v>13</v>
+      </c>
+      <c r="F175">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>179</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>33</v>
+      </c>
+      <c r="E176">
+        <v>36</v>
+      </c>
+      <c r="F176">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177">
+        <v>4</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+      <c r="F177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>43</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>184</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>185</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>14</v>
+      </c>
+      <c r="F182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
+      <c r="C183">
+        <v>12</v>
+      </c>
+      <c r="D183">
+        <v>16</v>
+      </c>
+      <c r="E183">
+        <v>16</v>
+      </c>
+      <c r="F183">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>187</v>
+      </c>
+      <c r="C184">
+        <v>13</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
+      <c r="C185">
+        <v>24</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>189</v>
+      </c>
+      <c r="C186">
+        <v>18</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187">
+        <v>1095</v>
+      </c>
+      <c r="D187">
+        <v>58</v>
+      </c>
+      <c r="E187">
+        <v>59</v>
+      </c>
+      <c r="F187">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>191</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>18</v>
+      </c>
+      <c r="E188">
+        <v>14</v>
+      </c>
+      <c r="F188">
         <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>192</v>
+      </c>
+      <c r="C189">
+        <v>23</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>5</v>
+      </c>
+      <c r="F189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>193</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>28</v>
+      </c>
+      <c r="E190">
+        <v>30</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>195</v>
+      </c>
+      <c r="C192">
+        <v>176</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
+      <c r="C193">
+        <v>13</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>197</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>6</v>
+      </c>
+      <c r="E194">
+        <v>5</v>
+      </c>
+      <c r="F194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>198</v>
+      </c>
+      <c r="C195">
+        <v>6</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>199</v>
+      </c>
+      <c r="C196">
+        <v>684</v>
+      </c>
+      <c r="D196">
+        <v>23</v>
+      </c>
+      <c r="E196">
+        <v>29</v>
+      </c>
+      <c r="F196">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>200</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>201</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>202</v>
+      </c>
+      <c r="C199">
+        <v>12</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>203</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>9</v>
+      </c>
+      <c r="E200">
+        <v>8</v>
+      </c>
+      <c r="F200">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>204</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>10</v>
+      </c>
+      <c r="E201">
+        <v>23</v>
+      </c>
+      <c r="F201">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>205</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>12</v>
+      </c>
+      <c r="E202">
+        <v>18</v>
+      </c>
+      <c r="F202">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>206</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+      <c r="D203">
+        <v>18</v>
+      </c>
+      <c r="E203">
+        <v>22</v>
+      </c>
+      <c r="F203">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>207</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>32</v>
+      </c>
+      <c r="F204">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>208</v>
+      </c>
+      <c r="C205">
+        <v>702</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>209</v>
+      </c>
+      <c r="C206">
+        <v>28</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+      <c r="F207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>211</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>212</v>
+      </c>
+      <c r="C209">
+        <v>37</v>
+      </c>
+      <c r="D209">
+        <v>21</v>
+      </c>
+      <c r="E209">
+        <v>23</v>
+      </c>
+      <c r="F209">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>213</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>215</v>
+      </c>
+      <c r="C212">
+        <v>21</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
+      <c r="C213">
+        <v>162</v>
+      </c>
+      <c r="D213">
+        <v>39</v>
+      </c>
+      <c r="E213">
+        <v>39</v>
+      </c>
+      <c r="F213">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>217</v>
+      </c>
+      <c r="C214">
+        <v>15</v>
+      </c>
+      <c r="D214">
+        <v>11</v>
+      </c>
+      <c r="E214">
+        <v>13</v>
+      </c>
+      <c r="F214">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
+      <c r="C215">
+        <v>18</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>219</v>
+      </c>
+      <c r="C216">
+        <v>8</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216">
+        <v>10</v>
+      </c>
+      <c r="F216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
